--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassw/SOURCE/kainos/NOMS/WMT/wmt-etl/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassw/SOURCE/kainos/NOMS/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
   <si>
     <t>Trust</t>
   </si>
@@ -164,9 +164,6 @@
     <t>London</t>
   </si>
   <si>
-    <t>LDN</t>
-  </si>
-  <si>
     <t>KainosLDU</t>
   </si>
   <si>
@@ -225,13 +222,61 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>OM_Name</t>
+  </si>
+  <si>
+    <t>Parom_Comp_Last_30</t>
+  </si>
+  <si>
+    <t>Parom_Due_Next_30</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>NPSQ</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>X555555</t>
+  </si>
+  <si>
+    <t>X444444</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>ND04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,16 +294,43 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -266,17 +338,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCAC9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCAC9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCAC9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCAC9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCAC9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCAC9D9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -554,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,28 +863,28 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
       </c>
       <c r="K2">
         <v>1001</v>
@@ -848,28 +988,28 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>44</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>46</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
       <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" t="s">
-        <v>53</v>
       </c>
       <c r="K3">
         <v>1002</v>
@@ -972,60 +1112,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1001</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1002</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
+      <c r="F3">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>13</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42795.628472222219</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,48 +1231,85 @@
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1001</v>
+      </c>
+      <c r="E2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>42795.628472222219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1002</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>13</v>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>42795.628472222219</v>
       </c>
     </row>
   </sheetData>
@@ -1098,23 +1319,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1126,7 +1356,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1136,23 +1412,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1164,7 +1440,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1174,23 +1496,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1202,7 +1524,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1212,23 +1580,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1240,7 +1608,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -101,30 +101,6 @@
     <t>CommTierA</t>
   </si>
   <si>
-    <t>LicenseTier0</t>
-  </si>
-  <si>
-    <t>LicenseTierD2</t>
-  </si>
-  <si>
-    <t>LicenseTierD1</t>
-  </si>
-  <si>
-    <t>LicenseTierC2</t>
-  </si>
-  <si>
-    <t>LicenseTierC1</t>
-  </si>
-  <si>
-    <t>LicenseTierB2</t>
-  </si>
-  <si>
-    <t>LicenseTierB1</t>
-  </si>
-  <si>
-    <t>LicenseTierA</t>
-  </si>
-  <si>
     <t>CustTier0</t>
   </si>
   <si>
@@ -270,6 +246,30 @@
   </si>
   <si>
     <t>ND04</t>
+  </si>
+  <si>
+    <t>LicenceTier0</t>
+  </si>
+  <si>
+    <t>LicenceTierD2</t>
+  </si>
+  <si>
+    <t>LicenceTierD1</t>
+  </si>
+  <si>
+    <t>LicenceTierC2</t>
+  </si>
+  <si>
+    <t>LicenceTierC1</t>
+  </si>
+  <si>
+    <t>LicenceTierB2</t>
+  </si>
+  <si>
+    <t>LicenceTierB1</t>
+  </si>
+  <si>
+    <t>LicenceTierA</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,93 +798,93 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
       </c>
       <c r="K2">
         <v>1001</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
       </c>
       <c r="K3">
         <v>1002</v>
@@ -1133,42 +1133,42 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>1001</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>15</v>
@@ -1185,19 +1185,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>1002</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>18</v>
@@ -1245,39 +1245,39 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>1001</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -1288,19 +1288,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D3">
         <v>1002</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1338,13 +1338,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1356,53 +1356,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1422,13 +1422,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1440,53 +1440,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1506,13 +1506,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1524,53 +1524,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1590,13 +1590,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1608,53 +1608,53 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomassw/SOURCE/kainos/NOMS/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -245,7 +245,7 @@
     <t>I</t>
   </si>
   <si>
-    <t>ND04</t>
+    <t>ND01</t>
   </si>
   <si>
     <t>LicenceTier0</t>
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,6 +1280,9 @@
         <v>49</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" s="3">

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Trust</t>
   </si>
@@ -134,42 +134,6 @@
     <t>Datestamp</t>
   </si>
   <si>
-    <t>Farringdon</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>KainosLDU</t>
-  </si>
-  <si>
-    <t>KNS</t>
-  </si>
-  <si>
-    <t>WMT Team</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>Swann</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Wright</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
     <t>OM_Team_Staff_Grade</t>
   </si>
   <si>
@@ -182,12 +146,6 @@
     <t>SDR_Conv_Last_30</t>
   </si>
   <si>
-    <t>1001|WMT|C</t>
-  </si>
-  <si>
-    <t>1002|WMT|Z</t>
-  </si>
-  <si>
     <t>Row_Type</t>
   </si>
   <si>
@@ -207,45 +165,6 @@
   </si>
   <si>
     <t>Parom_Due_Next_30</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>Community</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>NPSQ</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>X555555</t>
-  </si>
-  <si>
-    <t>X444444</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>ND01</t>
   </si>
   <si>
     <t>LicenceTier0</t>
@@ -276,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,11 +210,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -316,21 +230,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -338,81 +246,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAC9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCAC9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCAC9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAC9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAC9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCAC9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCAC9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCAC9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCAC9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCAC9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCAC9D9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCAC9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -692,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+      <selection activeCell="D3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,28 +641,28 @@
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>22</v>
@@ -853,256 +696,6 @@
       </c>
       <c r="AO1" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2">
-        <v>1001</v>
-      </c>
-      <c r="L2">
-        <v>10</v>
-      </c>
-      <c r="M2">
-        <v>20</v>
-      </c>
-      <c r="N2">
-        <v>30</v>
-      </c>
-      <c r="O2">
-        <v>40</v>
-      </c>
-      <c r="P2">
-        <v>50</v>
-      </c>
-      <c r="Q2">
-        <v>60</v>
-      </c>
-      <c r="R2">
-        <v>70</v>
-      </c>
-      <c r="S2">
-        <v>80</v>
-      </c>
-      <c r="T2">
-        <v>90</v>
-      </c>
-      <c r="U2">
-        <v>20</v>
-      </c>
-      <c r="V2">
-        <v>30</v>
-      </c>
-      <c r="W2">
-        <v>40</v>
-      </c>
-      <c r="X2">
-        <v>50</v>
-      </c>
-      <c r="Y2">
-        <v>60</v>
-      </c>
-      <c r="Z2">
-        <v>70</v>
-      </c>
-      <c r="AA2">
-        <v>80</v>
-      </c>
-      <c r="AB2">
-        <v>90</v>
-      </c>
-      <c r="AC2">
-        <v>10</v>
-      </c>
-      <c r="AD2">
-        <v>20</v>
-      </c>
-      <c r="AE2">
-        <v>30</v>
-      </c>
-      <c r="AF2">
-        <v>40</v>
-      </c>
-      <c r="AG2">
-        <v>50</v>
-      </c>
-      <c r="AH2">
-        <v>60</v>
-      </c>
-      <c r="AI2">
-        <v>70</v>
-      </c>
-      <c r="AJ2">
-        <v>80</v>
-      </c>
-      <c r="AK2">
-        <v>90</v>
-      </c>
-      <c r="AL2">
-        <v>100</v>
-      </c>
-      <c r="AM2">
-        <v>40</v>
-      </c>
-      <c r="AN2">
-        <v>60</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3">
-        <v>1002</v>
-      </c>
-      <c r="L3">
-        <v>10</v>
-      </c>
-      <c r="M3">
-        <v>20</v>
-      </c>
-      <c r="N3">
-        <v>30</v>
-      </c>
-      <c r="O3">
-        <v>40</v>
-      </c>
-      <c r="P3">
-        <v>50</v>
-      </c>
-      <c r="Q3">
-        <v>60</v>
-      </c>
-      <c r="R3">
-        <v>70</v>
-      </c>
-      <c r="S3">
-        <v>80</v>
-      </c>
-      <c r="T3">
-        <v>90</v>
-      </c>
-      <c r="U3">
-        <v>20</v>
-      </c>
-      <c r="V3">
-        <v>30</v>
-      </c>
-      <c r="W3">
-        <v>40</v>
-      </c>
-      <c r="X3">
-        <v>10</v>
-      </c>
-      <c r="Y3">
-        <v>20</v>
-      </c>
-      <c r="Z3">
-        <v>30</v>
-      </c>
-      <c r="AA3">
-        <v>40</v>
-      </c>
-      <c r="AB3">
-        <v>50</v>
-      </c>
-      <c r="AC3">
-        <v>60</v>
-      </c>
-      <c r="AD3">
-        <v>70</v>
-      </c>
-      <c r="AE3">
-        <v>80</v>
-      </c>
-      <c r="AF3">
-        <v>90</v>
-      </c>
-      <c r="AG3">
-        <v>50</v>
-      </c>
-      <c r="AH3">
-        <v>40</v>
-      </c>
-      <c r="AI3">
-        <v>20</v>
-      </c>
-      <c r="AJ3">
-        <v>20</v>
-      </c>
-      <c r="AK3">
-        <v>30</v>
-      </c>
-      <c r="AL3">
-        <v>50</v>
-      </c>
-      <c r="AM3">
-        <v>80</v>
-      </c>
-      <c r="AN3">
-        <v>90</v>
-      </c>
-      <c r="AO3" s="3">
-        <v>42795.628472222219</v>
       </c>
     </row>
   </sheetData>
@@ -1112,9 +705,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1133,83 +728,25 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>1001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>1002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3">
-        <v>42795.628472222219</v>
       </c>
     </row>
   </sheetData>
@@ -1219,10 +756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,74 +782,22 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2">
-        <v>1001</v>
-      </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>42795.628472222219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3">
-        <v>1002</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>42795.628472222219</v>
       </c>
     </row>
   </sheetData>
@@ -1322,10 +807,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,13 +826,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1359,53 +844,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1415,23 +854,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1443,53 +882,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1499,23 +892,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1527,53 +920,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1583,23 +930,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>6</v>
@@ -1611,53 +958,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Flag_Upw" sheetId="5" r:id="rId5"/>
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId6"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
+    <sheet name="CMS" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Trust</t>
   </si>
@@ -189,13 +190,62 @@
   </si>
   <si>
     <t>LicenceTierA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_ID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_Date
+</t>
+  </si>
+  <si>
+    <t>Contact_Type_Code</t>
+  </si>
+  <si>
+    <t>Contact_Type_Desc</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Name</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Key</t>
+  </si>
+  <si>
+    <t>Contact_Staff_Grade</t>
+  </si>
+  <si>
+    <t>Contact_Team_Key</t>
+  </si>
+  <si>
+    <t>Contact_Provider_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Grade
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Team_Key
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OM_Provider_Code
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,13 +279,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,10 +313,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -932,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -964,4 +1028,63 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId6"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
     <sheet name="CMS" sheetId="8" r:id="rId8"/>
+    <sheet name="GS" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Trust</t>
   </si>
@@ -240,12 +241,27 @@
     <t xml:space="preserve">OM_Provider_Code
 </t>
   </si>
+  <si>
+    <t>Contact_ID</t>
+  </si>
+  <si>
+    <t>Contact_Date</t>
+  </si>
+  <si>
+    <t>OM_Grade</t>
+  </si>
+  <si>
+    <t>OM_Team_Key</t>
+  </si>
+  <si>
+    <t>OM_Provider_Code</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +300,13 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -313,13 +336,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1034,7 +1058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1087,4 +1111,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
     <sheet name="CMS" sheetId="8" r:id="rId8"/>
     <sheet name="GS" sheetId="9" r:id="rId9"/>
+    <sheet name="T2A" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
   <si>
     <t>Trust</t>
   </si>
@@ -625,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D3" sqref="A2:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -791,6 +792,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AO1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:41" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
@@ -1117,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId6"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
     <sheet name="CMS" sheetId="8" r:id="rId8"/>
+    <sheet name="ARMS" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Trust</t>
   </si>
@@ -239,13 +240,40 @@
   <si>
     <t xml:space="preserve">OM_Provider_Code
 </t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Name</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Grade</t>
+  </si>
+  <si>
+    <t>Assessmentent_Team_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Provider_Code</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>Disposal_or_Release_Date</t>
+  </si>
+  <si>
+    <t>Sentence Type</t>
+  </si>
+  <si>
+    <t>SO_Registration_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,8 +312,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,11 +332,54 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B64A0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -313,12 +390,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1034,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1087,4 +1176,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -263,10 +263,10 @@
     <t>Disposal_or_Release_Date</t>
   </si>
   <si>
-    <t>Sentence Type</t>
-  </si>
-  <si>
     <t>SO_Registration_Date</t>
+  </si>
+  <si>
+    <t>Sentence_Type</t>
   </si>
 </sst>
 </file>
@@ -1183,7 +1183,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1211,10 +1211,10 @@
         <v>72</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/terences/Sources/WMT/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewwr/src/wmt/etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Flag_O_Due" sheetId="6" r:id="rId6"/>
     <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
     <sheet name="CMS" sheetId="8" r:id="rId8"/>
+    <sheet name="ARMS" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>Trust</t>
   </si>
@@ -239,13 +240,40 @@
   <si>
     <t xml:space="preserve">OM_Provider_Code
 </t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Name</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Grade</t>
+  </si>
+  <si>
+    <t>Assessmentent_Team_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Provider_Code</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>Disposal_or_Release_Date</t>
+  </si>
+  <si>
+    <t>SO_Registration_Date</t>
+  </si>
+  <si>
+    <t>Sentence_Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,8 +312,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,11 +332,54 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B64A0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -313,12 +390,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1034,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1087,4 +1176,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Desktop/Excel files /"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="Flag_Priority" sheetId="7" r:id="rId7"/>
     <sheet name="CMS" sheetId="8" r:id="rId8"/>
     <sheet name="GS" sheetId="9" r:id="rId9"/>
-    <sheet name="T2A" sheetId="10" r:id="rId10"/>
+    <sheet name="ARMS" sheetId="10" r:id="rId10"/>
+    <sheet name="T2A" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Trust</t>
   </si>
@@ -256,13 +257,40 @@
   </si>
   <si>
     <t>OM_Provider_Code</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Name</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Staff_Grade</t>
+  </si>
+  <si>
+    <t>Assessmentent_Team_Key</t>
+  </si>
+  <si>
+    <t>Assessment_Provider_Code</t>
+  </si>
+  <si>
+    <t>CRN</t>
+  </si>
+  <si>
+    <t>Disposal_or_Release_Date</t>
+  </si>
+  <si>
+    <t>Sentence_Type</t>
+  </si>
+  <si>
+    <t>SO_Registration_Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,8 +336,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,11 +356,54 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0B64A0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3877A6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3877A6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3877A6"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -337,7 +414,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -345,6 +422,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -626,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -794,85 +883,129 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="37" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:41" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>45</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -884,16 +1017,16 @@
       <c r="AA1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AD1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="AF1" s="2" t="s">
@@ -905,25 +1038,25 @@
       <c r="AH1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>28</v>
       </c>
       <c r="AL1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>32</v>
       </c>
     </row>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Desktop/Excel files /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
   <si>
     <t>Trust</t>
   </si>
@@ -283,13 +283,24 @@
   </si>
   <si>
     <t>SO_Registration_Date</t>
+  </si>
+  <si>
+    <t>LDU_Desc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDU_Code
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral_reports
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,8 +352,19 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,8 +383,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -407,13 +441,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="31"/>
+      </left>
+      <right style="thin">
+        <color indexed="31"/>
+      </right>
+      <top style="thin">
+        <color indexed="31"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="31"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,6 +481,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -884,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -926,10 +984,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,32 +999,56 @@
     <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="O1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>32</v>
       </c>
     </row>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Desktop/Excel files /"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caoimheb/Documents/MOJ_WMT/repos/wmt-etl/wmt_etl/tests/data/full_inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="GS" sheetId="9" r:id="rId9"/>
     <sheet name="ARMS" sheetId="10" r:id="rId10"/>
     <sheet name="T2A" sheetId="11" r:id="rId11"/>
+    <sheet name="WMT_Extract_SA" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="86">
   <si>
     <t>Trust</t>
   </si>
@@ -295,6 +296,15 @@
   <si>
     <t xml:space="preserve">Oral_reports
 </t>
+  </si>
+  <si>
+    <t>Disposal_Type_Desc</t>
+  </si>
+  <si>
+    <t>Disposal_Type_Code</t>
+  </si>
+  <si>
+    <t>Standalone_Order</t>
   </si>
 </sst>
 </file>
@@ -365,7 +375,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +406,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -457,13 +473,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,6 +534,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -987,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:AO1"/>
     </sheetView>
   </sheetViews>
@@ -1116,6 +1166,50 @@
       </c>
       <c r="AO1" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/wmt_etl/tests/data/full_inputs/ND04.xlsx
+++ b/wmt_etl/tests/data/full_inputs/ND04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="WMT_Extract" sheetId="1" r:id="rId1"/>
@@ -269,9 +269,6 @@
     <t>Assessment_Staff_Grade</t>
   </si>
   <si>
-    <t>Assessmentent_Team_Key</t>
-  </si>
-  <si>
     <t>Assessment_Provider_Code</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>Standalone_Order</t>
+  </si>
+  <si>
+    <t>Assessment_Team_Key</t>
   </si>
 </sst>
 </file>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1010,22 +1010,22 @@
         <v>73</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -1203,13 +1203,13 @@
         <v>40</v>
       </c>
       <c r="G1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1245,10 +1245,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>81</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>5</v>
@@ -1281,7 +1281,7 @@
         <v>36</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q1" s="10" t="s">
         <v>32</v>
